--- a/xlsx/aerob-run-6min.xlsx
+++ b/xlsx/aerob-run-6min.xlsx
@@ -498,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -867,7 +867,7 @@
         <v>665</v>
       </c>
       <c r="V5" s="1">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="W5" s="1">
         <v>583</v>
@@ -2125,7 +2125,7 @@
         <v>765</v>
       </c>
       <c r="V22" s="1">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="W22" s="1">
         <v>678</v>
@@ -2199,7 +2199,7 @@
         <v>770</v>
       </c>
       <c r="V23" s="1">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="W23" s="1">
         <v>680</v>
@@ -2273,7 +2273,7 @@
         <v>775</v>
       </c>
       <c r="V24" s="1">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="W24" s="1">
         <v>688</v>
@@ -2347,7 +2347,7 @@
         <v>780</v>
       </c>
       <c r="V25" s="1">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="W25" s="1">
         <v>695</v>
@@ -2421,7 +2421,7 @@
         <v>785</v>
       </c>
       <c r="V26" s="1">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="W26" s="1">
         <v>700</v>
@@ -2495,7 +2495,7 @@
         <v>790</v>
       </c>
       <c r="V27" s="1">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="W27" s="1">
         <v>705</v>
@@ -2569,7 +2569,7 @@
         <v>795</v>
       </c>
       <c r="V28" s="1">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="W28" s="1">
         <v>710</v>
@@ -2643,7 +2643,7 @@
         <v>800</v>
       </c>
       <c r="V29" s="1">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="W29" s="1">
         <v>715</v>
@@ -2717,7 +2717,7 @@
         <v>805</v>
       </c>
       <c r="V30" s="1">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="W30" s="1">
         <v>720</v>
@@ -2791,7 +2791,7 @@
         <v>810</v>
       </c>
       <c r="V31" s="1">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="W31" s="1">
         <v>725</v>
@@ -2862,7 +2862,7 @@
         <v>850</v>
       </c>
       <c r="U32" s="1">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="V32" s="1">
         <v>791</v>
@@ -2936,10 +2936,10 @@
         <v>875</v>
       </c>
       <c r="U33" s="1">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="V33" s="1">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="W33" s="1">
         <v>733</v>
@@ -3013,7 +3013,7 @@
         <v>835</v>
       </c>
       <c r="V34" s="1">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="W34" s="1">
         <v>735</v>
@@ -3087,7 +3087,7 @@
         <v>840</v>
       </c>
       <c r="V35" s="1">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="W35" s="1">
         <v>740</v>
@@ -3161,7 +3161,7 @@
         <v>845</v>
       </c>
       <c r="V36" s="1">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="W36" s="1">
         <v>745</v>
@@ -3235,7 +3235,7 @@
         <v>850</v>
       </c>
       <c r="V37" s="1">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="W37" s="1">
         <v>750</v>
@@ -3309,7 +3309,7 @@
         <v>855</v>
       </c>
       <c r="V38" s="1">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="W38" s="1">
         <v>755</v>
@@ -3383,7 +3383,7 @@
         <v>860</v>
       </c>
       <c r="V39" s="1">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="W39" s="1">
         <v>760</v>
@@ -3457,7 +3457,7 @@
         <v>865</v>
       </c>
       <c r="V40" s="1">
-        <v>820</v>
+        <v>833</v>
       </c>
       <c r="W40" s="1">
         <v>765</v>
@@ -3531,7 +3531,7 @@
         <v>870</v>
       </c>
       <c r="V41" s="1">
-        <v>825</v>
+        <v>840</v>
       </c>
       <c r="W41" s="1">
         <v>770</v>
@@ -3605,7 +3605,7 @@
         <v>875</v>
       </c>
       <c r="V42" s="1">
-        <v>833</v>
+        <v>843</v>
       </c>
       <c r="W42" s="1">
         <v>773</v>
@@ -3679,7 +3679,7 @@
         <v>883</v>
       </c>
       <c r="V43" s="1">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="W43" s="1">
         <v>780</v>
@@ -3753,7 +3753,7 @@
         <v>890</v>
       </c>
       <c r="V44" s="1">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="W44" s="1">
         <v>785</v>
@@ -3827,7 +3827,7 @@
         <v>895</v>
       </c>
       <c r="V45" s="1">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="W45" s="1">
         <v>790</v>
@@ -3901,7 +3901,7 @@
         <v>900</v>
       </c>
       <c r="V46" s="1">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="W46" s="1">
         <v>795</v>
@@ -3975,7 +3975,7 @@
         <v>905</v>
       </c>
       <c r="V47" s="1">
-        <v>860</v>
+        <v>870</v>
       </c>
       <c r="W47" s="1">
         <v>800</v>
@@ -4049,7 +4049,7 @@
         <v>913</v>
       </c>
       <c r="V48" s="1">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="W48" s="1">
         <v>805</v>
@@ -4123,7 +4123,7 @@
         <v>920</v>
       </c>
       <c r="V49" s="1">
-        <v>870</v>
+        <v>883</v>
       </c>
       <c r="W49" s="1">
         <v>810</v>
@@ -4197,7 +4197,7 @@
         <v>925</v>
       </c>
       <c r="V50" s="1">
-        <v>875</v>
+        <v>890</v>
       </c>
       <c r="W50" s="1">
         <v>815</v>
@@ -4271,7 +4271,7 @@
         <v>930</v>
       </c>
       <c r="V51" s="1">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="W51" s="1">
         <v>820</v>
@@ -4345,7 +4345,7 @@
         <v>935</v>
       </c>
       <c r="V52" s="1">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="W52" s="1">
         <v>825</v>
@@ -4419,7 +4419,7 @@
         <v>940</v>
       </c>
       <c r="V53" s="1">
-        <v>895</v>
+        <v>905</v>
       </c>
       <c r="W53" s="1">
         <v>830</v>
@@ -4493,7 +4493,7 @@
         <v>945</v>
       </c>
       <c r="V54" s="1">
-        <v>900</v>
+        <v>913</v>
       </c>
       <c r="W54" s="1">
         <v>835</v>
@@ -4567,7 +4567,7 @@
         <v>950</v>
       </c>
       <c r="V55" s="1">
-        <v>905</v>
+        <v>920</v>
       </c>
       <c r="W55" s="1">
         <v>840</v>
@@ -4641,7 +4641,7 @@
         <v>955</v>
       </c>
       <c r="V56" s="1">
-        <v>913</v>
+        <v>925</v>
       </c>
       <c r="W56" s="1">
         <v>845</v>
@@ -4715,7 +4715,7 @@
         <v>960</v>
       </c>
       <c r="V57" s="1">
-        <v>920</v>
+        <v>930</v>
       </c>
       <c r="W57" s="1">
         <v>850</v>
@@ -4789,7 +4789,7 @@
         <v>965</v>
       </c>
       <c r="V58" s="1">
-        <v>925</v>
+        <v>935</v>
       </c>
       <c r="W58" s="1">
         <v>855</v>
@@ -4863,7 +4863,7 @@
         <v>970</v>
       </c>
       <c r="V59" s="1">
-        <v>930</v>
+        <v>938</v>
       </c>
       <c r="W59" s="1">
         <v>860</v>
@@ -4937,7 +4937,7 @@
         <v>975</v>
       </c>
       <c r="V60" s="1">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="W60" s="1">
         <v>865</v>
@@ -7201,19 +7201,24 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B59:X77 B2:U58 W2:X58 V22:V28 V2:V20 V30:V57">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
-      <formula>B3</formula>
+  <conditionalFormatting sqref="B3:X21 B22:U78 W22:X78 V33:V78 V24:V31">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThanOrEqual">
+      <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V58 V21">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="V22">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThanOrEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V29">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
-      <formula>V34</formula>
+  <conditionalFormatting sqref="V23">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThanOrEqual">
+      <formula>V22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V32">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="lessThanOrEqual">
+      <formula>V30</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7593,7 +7598,7 @@
         <v>665</v>
       </c>
       <c r="V5" s="1">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="W5" s="1">
         <v>583</v>
@@ -9443,7 +9448,7 @@
         <v>805</v>
       </c>
       <c r="V30" s="1">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="W30" s="1">
         <v>720</v>
@@ -9517,7 +9522,7 @@
         <v>810</v>
       </c>
       <c r="V31" s="1">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="W31" s="1">
         <v>725</v>
@@ -9588,10 +9593,10 @@
         <v>850</v>
       </c>
       <c r="U32" s="1">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="V32" s="1">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="W32" s="1">
         <v>730</v>
@@ -9662,10 +9667,10 @@
         <v>875</v>
       </c>
       <c r="U33" s="1">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="V33" s="1">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="W33" s="1">
         <v>733</v>
@@ -9739,7 +9744,7 @@
         <v>835</v>
       </c>
       <c r="V34" s="1">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="W34" s="1">
         <v>735</v>
@@ -9813,7 +9818,7 @@
         <v>840</v>
       </c>
       <c r="V35" s="1">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="W35" s="1">
         <v>740</v>
@@ -9887,7 +9892,7 @@
         <v>845</v>
       </c>
       <c r="V36" s="1">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="W36" s="1">
         <v>745</v>
@@ -13927,19 +13932,29 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B59:X77 B2:U58 W2:X58 V22:V28 V2:V20 V30:V57">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
-      <formula>B3</formula>
+  <conditionalFormatting sqref="B3:X21 B22:U78 W22:X78 V60:V78 V36:V58 V23:V31">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThanOrEqual">
+      <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V58 V21">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="V22 V59">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="lessThanOrEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V29">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="V34:V35">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="lessThanOrEqual">
+      <formula>V32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V33">
+    <cfRule type="cellIs" dxfId="5" priority="17" operator="lessThanOrEqual">
       <formula>V34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V32">
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="lessThanOrEqual">
+      <formula>V27</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
